--- a/Datenexploration.xlsx
+++ b/Datenexploration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10106"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,8 +21,7 @@
     <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">'NG11_11'!$A$1:$J$108</definedName>
     <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">'NG14_14'!$A$1:$J$64</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +34,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,10 +43,10 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{159E4CB0-1A2E-4021-8552-7004549CEA67}" keepAlive="1" name="Abfrage - NG11_11" description="Verbindung mit der Abfrage 'NG11_11' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Abfrage - NG11_11" description="Verbindung mit der Abfrage 'NG11_11' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=NG11_11;Extended Properties=&quot;&quot;" command="SELECT * FROM [NG11_11]"/>
   </connection>
-  <connection id="2" xr16:uid="{A3BA9B9F-43EC-4C1E-9A73-8C654322EB0E}" keepAlive="1" name="Abfrage - NG14_14" description="Verbindung mit der Abfrage 'NG14_14' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Abfrage - NG14_14" description="Verbindung mit der Abfrage 'NG14_14' in der Arbeitsmappe." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=NG14_14;Extended Properties=&quot;&quot;" command="SELECT * FROM [NG14_14]"/>
   </connection>
 </connections>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{BFFFF10B-CC2F-410C-972A-587C793F9C18}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="12">
     <queryTableFields count="10">
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{7C5D1AA8-AED1-49F4-85DB-7ACDCF797D2D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneDaten_1" connectionId="1" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14" unboundColumnsRight="2">
     <queryTableFields count="12">
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -238,10 +238,10 @@
     <tableColumn id="9" xr3:uid="{813A6150-BD5A-466B-A862-B65B95C6DFC5}" uniqueName="9" name="Y3" queryTableFieldId="9"/>
     <tableColumn id="10" xr3:uid="{5892ED22-F0D8-4335-9AE5-3B5B556E5624}" uniqueName="10" name="F1" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{30325DE6-35E8-4ED2-A816-E3DFD24AB16C}" uniqueName="11" name="F2" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{E953693B-F8D2-4C47-AD82-E7AA7442782B}" uniqueName="12" name="F3" queryTableFieldId="12" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{E953693B-F8D2-4C47-AD82-E7AA7442782B}" uniqueName="12" name="F3" queryTableFieldId="12" dataDxfId="1">
       <calculatedColumnFormula>NG11_11[[#This Row],[X3]]-NG11_11[[#This Row],[X2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{45A74DDC-F879-4FA9-BE8F-56D24CEB6DF0}" uniqueName="13" name="F4" queryTableFieldId="13" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{45A74DDC-F879-4FA9-BE8F-56D24CEB6DF0}" uniqueName="13" name="F4" queryTableFieldId="13" dataDxfId="0">
       <calculatedColumnFormula>NG11_11[[#This Row],[Y3]]-NG11_11[[#This Row],[Y2]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -552,13 +552,13 @@
       <selection activeCell="J1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.4921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.56640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>586</v>
       </c>
@@ -622,7 +622,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5491</v>
       </c>
@@ -654,7 +654,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4201</v>
       </c>
@@ -686,7 +686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9355</v>
       </c>
@@ -718,7 +718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9496</v>
       </c>
@@ -750,7 +750,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4202</v>
       </c>
@@ -782,7 +782,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9352</v>
       </c>
@@ -814,7 +814,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>896</v>
       </c>
@@ -846,7 +846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5253</v>
       </c>
@@ -878,7 +878,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5898</v>
       </c>
@@ -910,7 +910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9510</v>
       </c>
@@ -942,7 +942,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>397</v>
       </c>
@@ -974,7 +974,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2269</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6220</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6235</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7867</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>9509</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7860</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>9508</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9349</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>9490</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9347</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2243</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>223</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>9010</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8135</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9504</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>9349</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7214</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>7595</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7578</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7775</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7814</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7748</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7776</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7883</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7883</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9504</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9342</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9483</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4351</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4196</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9341</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9500</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9483</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1682</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2343</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2372</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2279</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2158</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2233</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2246</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2051</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1877</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1859</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1891</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2102</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1015</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>9502</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9500</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9481</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5025</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4998</v>
       </c>
@@ -2622,13 +2622,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="10.4921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.56640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4777</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4969</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2071</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4831</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>41293</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>359</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>89031</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5165</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>541</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4761</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>23490</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>289</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>13740</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>368</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>33153</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5176</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5201</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4837</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>8046</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5194</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5184</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5200</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5176</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5178</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5171</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5170</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5197</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5167</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5173</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5172</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5173</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5170</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5161</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5171</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5182</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4840</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>74724</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5171</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5162</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5174</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5170</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5167</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5171</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5167</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5172</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5165</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5156</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5169</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5167</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5157</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5156</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5174</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5166</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5154</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5170</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5165</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5174</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5162</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5157</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5174</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5171</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5156</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5167</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5167</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5152</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5155</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5167</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5154</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5153</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5173</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5167</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5158</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5167</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5177</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5178</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>357</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5176</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4830</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5167</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3897</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1988</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>357</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4830</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>288</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5165</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5164</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5163</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5141</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5161</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5147</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5161</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4833</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>369</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5147</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5143</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>770</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>367</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4849</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4830</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>356</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3895</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1989</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4830</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>356</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4848</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4841</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4838</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3500</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2857</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2535</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>358</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3331</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5269</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5227</v>
       </c>
@@ -7096,7 +7096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
